--- a/biology/Botanique/Tillandsia_insularis/Tillandsia_insularis.xlsx
+++ b/biology/Botanique/Tillandsia_insularis/Tillandsia_insularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia insularis Mez est une plante de la famille des Bromeliaceae.
 L'épithète insularis signifie « insulaire » et se réfère à l'habitat de la plante dans les îles Galápagos.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia insularis Mez in C.DC., Monogr. Phan. 9: 756, n° 107 (1896)
-Diagnose originale[1]  :
+Diagnose originale  :
 « foliis rosulatis, utrinque lepidibus minutissimis, peradpressis, brunnescentibus v. supra allutaceis punctulatis ; inflorescentia basi saltem 4-pinnatim panniculata[sic], glaberrima ; spinis laxis pinnatis, subsessilibus v. breviter stipitatis, usque ad 16-floris ; bracteolis florigeris dorso prominulo-venosis, suberecto-patentibus, quam sepala brevioribus ; floribus suberectis ; sepalis liberis, subasymmetricis. »
-Type : leg. Steudachner, n° 28 ; "Galapagos insulae" ; Holotypus W  (Herb. Vindob.) [1].
+Type : leg. Steudachner, n° 28 ; "Galapagos insulae" ; Holotypus W  (Herb. Vindob.) .
 </t>
         </is>
       </c>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Racinaea insularis (Mez) M.A.Spencer &amp; L.B.Sm.
-Synonymie taxonomique
-(aucune)</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Racinaea insularis (Mez) M.A.Spencer &amp; L.B.Sm.</t>
         </is>
       </c>
     </row>
@@ -576,10 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,10 +629,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tillandsia_insularis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_insularis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Typologie : plante herbacée vivace.
 Habitat : ?
@@ -613,38 +670,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tillandsia_insularis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tillandsia_insularis</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Équateur
-Galápagos[1]</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -666,10 +691,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comportement en culture</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Équateur
+Galápagos</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -692,18 +725,86 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Comportement en culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_insularis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_insularis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia insularis var. insularis
-(autonyme)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia insularis var. insularis</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(autonyme)
 Synonymie :
 Racinaea insularis var. insularis
 Distribution : îles Galápagos.
-Tillandsia insularis var. latilamina Gilmartin
-L'épithète latimamina signifie « à limbe large ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tillandsia_insularis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_insularis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tillandsia insularis var. latilamina Gilmartin</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète latimamina signifie « à limbe large ».
 Tillandsia insularis var. latilamina Gilmartin, in Phytologia 16: 163 (1968)
 Diagnose originale  : (à compléter)
 Type : leg. A.J.Gilmartin &amp; S. Hornman, n° 882, 1964-02-03 ; « Galapagos: West of Table Mt, east of crater, alt. 400 m., epiphytic. » ; Holotypus US National Herbarium (US 00089224)
